--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
+    <sheet name="Properties" r:id="rId4" sheetId="2"/>
+    <sheet name="Concepts" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -117,10 +118,64 @@
     <t>3</t>
   </si>
   <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#comment</t>
+  </si>
+  <si>
+    <t>A string that provides additional detail pertinent to the use or understanding of the concept</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>effectiveDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#effectiveDate</t>
+  </si>
+  <si>
+    <t>The date at which the concept status was last changed</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#status</t>
+  </si>
+  <si>
+    <t>A code that indicates the status of the concept. Typical values are active, experimental, deprecated, and retired</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#inactive</t>
+  </si>
+  <si>
+    <t>True if the concept is not considered active - e.g. not a valid concept any more. Property type is boolean, default value is false. Note that the status property may also be used to indicate that a concept is inactive</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>Display</t>
@@ -465,6 +520,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -473,58 +611,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>35</v>
-      </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Properties" r:id="rId4" sheetId="2"/>
-    <sheet name="Concepts" r:id="rId5" sheetId="3"/>
+    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -118,64 +117,10 @@
     <t>3</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
     <t>Code</t>
-  </si>
-  <si>
-    <t>Uri</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#comment</t>
-  </si>
-  <si>
-    <t>A string that provides additional detail pertinent to the use or understanding of the concept</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>effectiveDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#effectiveDate</t>
-  </si>
-  <si>
-    <t>The date at which the concept status was last changed</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#status</t>
-  </si>
-  <si>
-    <t>A code that indicates the status of the concept. Typical values are active, experimental, deprecated, and retired</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#inactive</t>
-  </si>
-  <si>
-    <t>True if the concept is not considered active - e.g. not a valid concept any more. Property type is boolean, default value is false. Note that the status property may also be used to indicate that a concept is inactive</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Level</t>
   </si>
   <si>
     <t>Display</t>
@@ -520,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,29 +479,29 @@
         <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>42</v>
@@ -570,99 +515,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="D4" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
+++ b/fhir/CodeSystem-AnastomosisLeakGrading.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
